--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0688FBF4-BA30-428F-BD9E-059BCA6E20B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D3184-81D3-4040-8551-045ABB5BEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Nutzen Sie öffentliche Verkehrsmittel?</t>
   </si>
   <si>
-    <t>Ticketart:Dropdown(Bus,Zug,U-Bahn); Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
-  </si>
-  <si>
     <t>Haben Sie Haustiere?</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Modell:Text; Jahr:Number</t>
+  </si>
+  <si>
+    <t>Ticketart:Dropdown[Bus,Zug,U-Bahn]; Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD33"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -491,7 +491,7 @@
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.1328125" customWidth="1"/>
-    <col min="4" max="4" width="51.59765625" customWidth="1"/>
+    <col min="4" max="4" width="88.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -535,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -547,40 +547,40 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -592,10 +592,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -607,10 +607,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D3184-81D3-4040-8551-045ABB5BEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93159791-AAC9-4D9A-BA3D-68CDB661F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>Modell:Text; Jahr:Number</t>
   </si>
   <si>
-    <t>Ticketart:Dropdown[Bus,Zug,U-Bahn]; Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
+    <t>Ticketart:Dropdown(Bus,Zug,U-Bahn); Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93159791-AAC9-4D9A-BA3D-68CDB661F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB8EE7-3930-427D-8B16-3261C3594876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Ticketart:Dropdown(Bus,Zug,U-Bahn); Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
+  </si>
+  <si>
+    <t>Brauchen Sie ein Service?</t>
+  </si>
+  <si>
+    <t>Dringend:Checkbox</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -616,6 +622,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A2:A7"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB8EE7-3930-427D-8B16-3261C3594876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FF436-63B8-4745-A376-91562E5D74C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -83,28 +83,28 @@
     <t>Fahren Sie ins Ausland?</t>
   </si>
   <si>
-    <t>Land:Text; Häufigkeit:Dropdown(Selten,Oft,Regelmäßig)</t>
-  </si>
-  <si>
     <t>Arbeiten Sie im Homeoffice?</t>
   </si>
   <si>
-    <t>Anteil:Number; Technik:Dropdown(Laptop,PC,Tablet)</t>
-  </si>
-  <si>
     <t>Nutzen Sie ein Firmenfahrzeug?</t>
   </si>
   <si>
     <t>Modell:Text; Jahr:Number</t>
   </si>
   <si>
-    <t>Ticketart:Dropdown(Bus,Zug,U-Bahn); Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
-  </si>
-  <si>
     <t>Brauchen Sie ein Service?</t>
   </si>
   <si>
     <t>Dringend:Checkbox</t>
+  </si>
+  <si>
+    <t>Ticketart:Dropdown(Bus,Zug,U-Bahn);Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
+  </si>
+  <si>
+    <t>Land:Text;Häufigkeit:Dropdown(Selten,Oft,Regelmäßig)</t>
+  </si>
+  <si>
+    <t>Anteil:Number;Technik:Dropdown(Laptop,PC,Tablet)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -586,22 +586,22 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -613,10 +613,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -627,10 +627,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FF436-63B8-4745-A376-91562E5D74C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950DB35-6107-4442-9413-F6C297A266D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -98,13 +98,13 @@
     <t>Dringend:Checkbox</t>
   </si>
   <si>
-    <t>Ticketart:Dropdown(Bus,Zug,U-Bahn);Häufigkeit:Dropdown(Täglich,Wöchentlich,Selten)</t>
-  </si>
-  <si>
     <t>Land:Text;Häufigkeit:Dropdown(Selten,Oft,Regelmäßig)</t>
   </si>
   <si>
     <t>Anteil:Number;Technik:Dropdown(Laptop,PC,Tablet)</t>
+  </si>
+  <si>
+    <t>Ticketart:Select(Bus,Zug,U-Bahn);Häufigkeit:Select(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -601,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F950DB35-6107-4442-9413-F6C297A266D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061EA68-6A87-45B2-B6C7-0D694D28C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <t>Anteil:Number;Technik:Dropdown(Laptop,PC,Tablet)</t>
   </si>
   <si>
-    <t>Ticketart:Select(Bus,Zug,U-Bahn);Häufigkeit:Select(Täglich,Wöchentlich,Selten)</t>
+    <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:Select(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061EA68-6A87-45B2-B6C7-0D694D28C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBB87F-240B-4DC0-B53D-F3A6EAB63AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Haben Sie ein Auto?</t>
   </si>
   <si>
-    <t>Marke:Text; Farbe:Text; Baujahr:Number</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
@@ -71,15 +68,9 @@
     <t>Haben Sie Haustiere?</t>
   </si>
   <si>
-    <t>Tierart:Text; Anzahl:Number</t>
-  </si>
-  <si>
     <t>Möchten Sie uns ein Dokument senden?</t>
   </si>
   <si>
-    <t>Beschreibung:Text</t>
-  </si>
-  <si>
     <t>Fahren Sie ins Ausland?</t>
   </si>
   <si>
@@ -89,22 +80,31 @@
     <t>Nutzen Sie ein Firmenfahrzeug?</t>
   </si>
   <si>
-    <t>Modell:Text; Jahr:Number</t>
-  </si>
-  <si>
     <t>Brauchen Sie ein Service?</t>
   </si>
   <si>
-    <t>Dringend:Checkbox</t>
-  </si>
-  <si>
-    <t>Land:Text;Häufigkeit:Dropdown(Selten,Oft,Regelmäßig)</t>
-  </si>
-  <si>
-    <t>Anteil:Number;Technik:Dropdown(Laptop,PC,Tablet)</t>
-  </si>
-  <si>
-    <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:Select(Täglich,Wöchentlich,Selten)</t>
+    <t>Marke:text; Farbe:text; Baujahr:Number</t>
+  </si>
+  <si>
+    <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:select(Täglich,Wöchentlich,Selten)</t>
+  </si>
+  <si>
+    <t>Tierart:text; Anzahl:Number</t>
+  </si>
+  <si>
+    <t>Beschreibung:text</t>
+  </si>
+  <si>
+    <t>Land:text;Häufigkeit:dropdown(Selten,Oft,Regelmäßig)</t>
+  </si>
+  <si>
+    <t>Anteil:number;Technik:dropdown(Laptop,PC,Tablet)</t>
+  </si>
+  <si>
+    <t>Modell:text; Jahr:number</t>
+  </si>
+  <si>
+    <t>Dringend:checkbox</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -526,10 +526,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -538,13 +538,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -553,13 +553,13 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -568,10 +568,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -583,13 +583,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -598,13 +598,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -613,10 +613,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -627,10 +627,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBB87F-240B-4DC0-B53D-F3A6EAB63AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599BEC1-6BA8-405E-B445-8FD17BF29019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -83,28 +83,28 @@
     <t>Brauchen Sie ein Service?</t>
   </si>
   <si>
-    <t>Marke:text; Farbe:text; Baujahr:Number</t>
-  </si>
-  <si>
     <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:select(Täglich,Wöchentlich,Selten)</t>
   </si>
   <si>
-    <t>Tierart:text; Anzahl:Number</t>
-  </si>
-  <si>
     <t>Beschreibung:text</t>
   </si>
   <si>
-    <t>Land:text;Häufigkeit:dropdown(Selten,Oft,Regelmäßig)</t>
-  </si>
-  <si>
-    <t>Anteil:number;Technik:dropdown(Laptop,PC,Tablet)</t>
-  </si>
-  <si>
     <t>Modell:text; Jahr:number</t>
   </si>
   <si>
-    <t>Dringend:checkbox</t>
+    <t>Land:text;Häufigkeit:select(Selten,Oft,Regelmäßig)</t>
+  </si>
+  <si>
+    <t>Anteil:number;Technik:select(Laptop,PC,Tablet)</t>
+  </si>
+  <si>
+    <t>Marke:text; Farbe:text; Baujahr:number</t>
+  </si>
+  <si>
+    <t>Tierart:text; Anzahl:number</t>
+  </si>
+  <si>
+    <t>Dringend(1 Woche):checkbox;Normal(2-4 Wochen):checkbox;Nicht-Dringend(5 Wochen und später:checkbox</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -526,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -586,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -616,7 +616,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599BEC1-6BA8-405E-B445-8FD17BF29019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417CF07-901B-4B4C-BB6A-02DCDF4A3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Dringend(1 Woche):checkbox;Normal(2-4 Wochen):checkbox;Nicht-Dringend(5 Wochen und später:checkbox</t>
+  </si>
+  <si>
+    <t>Ja:boolean</t>
+  </si>
+  <si>
+    <t>Sind Sie über 60?</t>
   </si>
 </sst>
 </file>
@@ -486,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -636,6 +642,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
     <sortCondition ref="A2:A7"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417CF07-901B-4B4C-BB6A-02DCDF4A3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E97A9F-5730-4850-B214-5F8D171FF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -83,21 +83,12 @@
     <t>Brauchen Sie ein Service?</t>
   </si>
   <si>
-    <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:select(Täglich,Wöchentlich,Selten)</t>
-  </si>
-  <si>
     <t>Beschreibung:text</t>
   </si>
   <si>
     <t>Modell:text; Jahr:number</t>
   </si>
   <si>
-    <t>Land:text;Häufigkeit:select(Selten,Oft,Regelmäßig)</t>
-  </si>
-  <si>
-    <t>Anteil:number;Technik:select(Laptop,PC,Tablet)</t>
-  </si>
-  <si>
     <t>Marke:text; Farbe:text; Baujahr:number</t>
   </si>
   <si>
@@ -110,7 +101,16 @@
     <t>Ja:boolean</t>
   </si>
   <si>
-    <t>Sind Sie über 60?</t>
+    <t>Ticketart:dropdown(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
+  </si>
+  <si>
+    <t>Land:text;Häufigkeit:dropdown(Selten,Oft,Regelmäßig)</t>
+  </si>
+  <si>
+    <t>Anteil:number;Technik:dropdown(Laptop,PC,Tablet)</t>
+  </si>
+  <si>
+    <t>Möchten Sie Ihr Alter nennen?</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -577,7 +577,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -636,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
@@ -650,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E97A9F-5730-4850-B214-5F8D171FF650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D7B75-F623-4093-B5E6-166B5A63B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Ja:boolean</t>
   </si>
   <si>
-    <t>Ticketart:dropdown(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
-  </si>
-  <si>
     <t>Land:text;Häufigkeit:dropdown(Selten,Oft,Regelmäßig)</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Möchten Sie Ihr Alter nennen?</t>
+  </si>
+  <si>
+    <t>Ticketart:dropdown(Bus/Zug/U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417D7B75-F623-4093-B5E6-166B5A63B256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E31F5-CFD9-4DF2-8EBA-C3E7A23A1FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Möchten Sie Ihr Alter nennen?</t>
   </si>
   <si>
-    <t>Ticketart:dropdown(Bus/Zug/U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
+    <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E31F5-CFD9-4DF2-8EBA-C3E7A23A1FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6C2FB-9994-4A15-B335-99B695F1F252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -503,7 +503,7 @@
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.1328125" customWidth="1"/>
-    <col min="4" max="4" width="88.9296875" customWidth="1"/>
+    <col min="5" max="5" width="88.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -517,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -532,10 +532,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -547,10 +547,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -562,10 +562,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -577,10 +577,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -592,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -607,10 +607,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -622,10 +622,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -636,10 +636,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +649,7 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA6C2FB-9994-4A15-B335-99B695F1F252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3582A1-381F-430C-B690-E956E982172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Möchten Sie Ihr Alter nennen?</t>
   </si>
   <si>
-    <t>Ticketart:select(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
+    <t>Ticketart:dropdown(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3582A1-381F-430C-B690-E956E982172A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5985AD-D2BB-4061-B3D2-11FC864FA186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Haben Sie ein Auto?</t>
-  </si>
-  <si>
     <t>Nein</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Ticketart:dropdown(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
+  </si>
+  <si>
+    <t>Haben Sie ein Auto??</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,13 +529,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -544,13 +544,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -559,13 +559,13 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -574,13 +574,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -589,13 +589,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -604,13 +604,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -619,13 +619,13 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -633,13 +633,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -647,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5985AD-D2BB-4061-B3D2-11FC864FA186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B48F2-D4E8-4840-ADD0-475A3F94421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>Ticketart:dropdown(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
   </si>
   <si>
-    <t>Haben Sie ein Auto??</t>
+    <t>Hast du ein Auto?</t>
   </si>
 </sst>
 </file>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6B48F2-D4E8-4840-ADD0-475A3F94421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977A799-E3AF-4285-9D08-6363F6B5965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="-15135" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="810" yWindow="-14460" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Modell:text; Jahr:number</t>
   </si>
   <si>
-    <t>Marke:text; Farbe:text; Baujahr:number</t>
-  </si>
-  <si>
     <t>Tierart:text; Anzahl:number</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Hast du ein Auto?</t>
+  </si>
+  <si>
+    <t>Marke:text:pflicht; Farbe:text; Baujahr:number:pflicht</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,13 +529,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -647,10 +647,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977A799-E3AF-4285-9D08-6363F6B5965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A302B3C-F315-4B3C-AD9C-740A3CEDFDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-14460" windowWidth="15390" windowHeight="9450" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Marke:text:pflicht; Farbe:text; Baujahr:number:pflicht</t>
+  </si>
+  <si>
+    <t>Ende</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -506,7 +509,7 @@
     <col min="5" max="5" width="88.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +525,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -537,8 +543,11 @@
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -552,8 +561,11 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -567,8 +579,11 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -583,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -598,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -613,7 +628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -628,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -642,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A302B3C-F315-4B3C-AD9C-740A3CEDFDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E45AE04-E82B-4108-B2FF-BD8C696880E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Möchten Sie Ihr Alter nennen?</t>
   </si>
   <si>
-    <t>Ticketart:dropdown(Bus,Zug,U-Bahn);Häufigkeit:dropdown(Täglich,Wöchentlich,Selten)</t>
-  </si>
-  <si>
     <t>Hast du ein Auto?</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Ende</t>
+  </si>
+  <si>
+    <t>Ticketart:dropdown(Bus,Zug,U-Bahn):pflicht;Häufigkeit:dropdown(Täglich,Wöchentlich,Selten):pflicht</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -535,13 +535,13 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E45AE04-E82B-4108-B2FF-BD8C696880E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A3F12-2E8E-4F0A-A94B-96398D5DB09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -506,7 +506,7 @@
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.1328125" customWidth="1"/>
-    <col min="5" max="5" width="88.9296875" customWidth="1"/>
+    <col min="4" max="4" width="88.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -520,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -538,10 +538,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -574,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
@@ -592,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -607,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -637,10 +637,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -651,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -664,7 +664,7 @@
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A3F12-2E8E-4F0A-A94B-96398D5DB09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D1260-522C-4AC9-85B7-4EFAFE102988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <t>Ende</t>
   </si>
   <si>
-    <t>Ticketart:dropdown(Bus,Zug,U-Bahn):pflicht;Häufigkeit:dropdown(Täglich,Wöchentlich,Selten):pflicht</t>
+    <t>Ticketart:select(Bus,Zug,U-Bahn):pflicht;Häufigkeit:select(Täglich,Wöchentlich,Selten):pflicht</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D1260-522C-4AC9-85B7-4EFAFE102988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A077CA4-51E6-447F-A076-45032D31E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Ticketart:select(Bus,Zug,U-Bahn):pflicht;Häufigkeit:select(Täglich,Wöchentlich,Selten):pflicht</t>
+  </si>
+  <si>
+    <t>Sind Sie mobil</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -530,57 +533,51 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -589,28 +586,31 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -619,58 +619,73 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
-    <sortCondition ref="A2:A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B8">
+    <sortCondition ref="A3:A8"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A077CA4-51E6-447F-A076-45032D31E6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D164B4-1D10-4A72-9A60-A4386EBF2F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D164B4-1D10-4A72-9A60-A4386EBF2F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DABBFED-6E30-4271-8B0B-770A882434F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DABBFED-6E30-4271-8B0B-770A882434F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F99CDB-A6BD-4AE6-B42A-398496B20D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -89,12 +89,6 @@
     <t>Tierart:text; Anzahl:number</t>
   </si>
   <si>
-    <t>Dringend(1 Woche):checkbox;Normal(2-4 Wochen):checkbox;Nicht-Dringend(5 Wochen und später:checkbox</t>
-  </si>
-  <si>
-    <t>Ja:boolean</t>
-  </si>
-  <si>
     <t>Land:text;Häufigkeit:dropdown(Selten,Oft,Regelmäßig)</t>
   </si>
   <si>
@@ -113,10 +107,19 @@
     <t>Ende</t>
   </si>
   <si>
-    <t>Ticketart:select(Bus,Zug,U-Bahn):pflicht;Häufigkeit:select(Täglich,Wöchentlich,Selten):pflicht</t>
-  </si>
-  <si>
     <t>Sind Sie mobil</t>
+  </si>
+  <si>
+    <t>Ticketart:dropdown(Bus,Zug,U-Bahn):pflicht;Häufigkeit:dropdown(Täglich,Wöchentlich,Selten):pflicht</t>
+  </si>
+  <si>
+    <t>Antworten komplett:checkbox(1,2,3):pflicht</t>
+  </si>
+  <si>
+    <t>Dringend(1 Woche):checkbox;Normal(2-4 Wochen):checkbox;Nicht-Dringend(5 Wochen und später):checkbox</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -537,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -548,10 +551,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -571,13 +574,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -595,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -622,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
@@ -637,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -666,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
@@ -677,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F99CDB-A6BD-4AE6-B42A-398496B20D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C431FC-F9D5-4D19-B47A-332AED991A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -53,80 +54,296 @@
     <t>Ja</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstmalige Erstellung mit unserer Kanzlei (Ja: erstmalig; Nein: wir haben die Erklärung im Vorjahr gemeinsam erstellt)? </t>
+  </si>
+  <si>
+    <t>A1. Stammdaten</t>
+  </si>
+  <si>
+    <t>A1.1 Name/Firma</t>
+  </si>
+  <si>
+    <t>A1.2 Anschrift</t>
+  </si>
+  <si>
+    <t>A1.3 Steuernummer</t>
+  </si>
+  <si>
+    <t>A1.3 AMA-Betreibsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 SVS-Versicherungsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 Bankverbindung (IBAN/BIC)</t>
+  </si>
+  <si>
+    <t>A1.3 Familienstand &amp; Kinder</t>
+  </si>
+  <si>
+    <t>A1.3 Vollmacht &amp; DSGVO-Einwilligung</t>
+  </si>
+  <si>
+    <t>A2. Betriebsstruktur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Vollerwerb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Nebenerwerb </t>
+  </si>
+  <si>
+    <t>A3. Nebetätigkeiten gesamt (Erstaufnahme)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>A3.1 Be /Verarbeitung eigener Naturprodukte (Direktvermarktung) (Einnahmenübersicht upload)</t>
+  </si>
+  <si>
+    <t>A3.2 Buschenschank / Mostbuschenschank / Almausschank (Nächtigungen/Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.3 Urlaub am Bauernhof (Betten, Nächtigungen, Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.4 Vermietung land-/forstw. Betriebsmittel (an wen? Bezirk? Kondition – upload)</t>
+  </si>
+  <si>
+    <t>A3.5 Dienstleistungen für andere land-/forstw. Betriebe (Art, Auftraggeber, Entgelte – upload)</t>
+  </si>
+  <si>
+    <t>A3.6 Sonstige (Beschreibung – Absatz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.3 Tierhaltung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.2 Flächenaufstellung </t>
+  </si>
+  <si>
+    <t>A2.4 Waldflächen</t>
+  </si>
+  <si>
+    <t>B1. Stammdaten &amp; Betreiber</t>
+  </si>
+  <si>
+    <t>B1.1 Änderungen bei Name/Adresse/Bank? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>B1.2 Betriebsführerwechsel / Mitunternehmerschaft geändert? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung</t>
+  </si>
+  <si>
+    <t>B2.2 Bewirtschaftungsart geändert (Voll/Neben, Bio/konv.)? (Wenn Ja: Kurzbeschreibung angeben)</t>
+  </si>
+  <si>
+    <t>Check: „Ich habe alle Änderungen/Unterlagen für 2024 übermittelt.“ (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>Freitext: „Gibt es noch etwas, das wir wissen sollten?“ (Absatz – optional)</t>
+  </si>
+  <si>
+    <t>Bestätigung: „Ich bestätige die Richtigkeit/Vollständigkeit.“ (Checkbox – Pflicht)</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
+    <t>Ende</t>
+  </si>
+  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>Nutzen Sie öffentliche Verkehrsmittel?</t>
-  </si>
-  <si>
-    <t>Haben Sie Haustiere?</t>
-  </si>
-  <si>
-    <t>Möchten Sie uns ein Dokument senden?</t>
-  </si>
-  <si>
-    <t>Fahren Sie ins Ausland?</t>
-  </si>
-  <si>
-    <t>Arbeiten Sie im Homeoffice?</t>
-  </si>
-  <si>
-    <t>Nutzen Sie ein Firmenfahrzeug?</t>
-  </si>
-  <si>
-    <t>Brauchen Sie ein Service?</t>
-  </si>
-  <si>
-    <t>Beschreibung:text</t>
-  </si>
-  <si>
-    <t>Modell:text; Jahr:number</t>
-  </si>
-  <si>
-    <t>Tierart:text; Anzahl:number</t>
-  </si>
-  <si>
-    <t>Land:text;Häufigkeit:dropdown(Selten,Oft,Regelmäßig)</t>
-  </si>
-  <si>
-    <t>Anteil:number;Technik:dropdown(Laptop,PC,Tablet)</t>
-  </si>
-  <si>
-    <t>Möchten Sie Ihr Alter nennen?</t>
-  </si>
-  <si>
-    <t>Hast du ein Auto?</t>
-  </si>
-  <si>
-    <t>Marke:text:pflicht; Farbe:text; Baujahr:number:pflicht</t>
-  </si>
-  <si>
-    <t>Ende</t>
-  </si>
-  <si>
-    <t>Sind Sie mobil</t>
-  </si>
-  <si>
-    <t>Ticketart:dropdown(Bus,Zug,U-Bahn):pflicht;Häufigkeit:dropdown(Täglich,Wöchentlich,Selten):pflicht</t>
-  </si>
-  <si>
-    <t>Antworten komplett:checkbox(1,2,3):pflicht</t>
-  </si>
-  <si>
-    <t>Dringend(1 Woche):checkbox;Normal(2-4 Wochen):checkbox;Nicht-Dringend(5 Wochen und später):checkbox</t>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox(Ja,Nein)pflicht</t>
+  </si>
+  <si>
+    <t>B1.1 Stammdatenänderungen?</t>
+  </si>
+  <si>
+    <t>Betriebsführer:text;Mitunternehmer:text;</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung Änderung?</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox:pflicht</t>
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>Beschreibung:text:optional</t>
+  </si>
+  <si>
+    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text:optional;SVS-Versicherungsnummer:text:optional;Bankverbindung(IBAN/BIC):text:optional;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number:optional;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
+  </si>
+  <si>
+    <t>A2.1 Fragen zum Betrieb</t>
+  </si>
+  <si>
+    <t>Erwerbsart:dropdown(Vollerwerb, Nebenerwerb):pflicht;Flächenaufstellung:dropdown(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+  </si>
+  <si>
+    <t>Tierarten&amp;Bestände:text;</t>
+  </si>
+  <si>
+    <t>Anzahl Hektar:number;typische Nutzung:text:pflicht;</t>
+  </si>
+  <si>
+    <t>Flächenaufstellung:dropdown(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+  </si>
+  <si>
+    <t>A4. Investitionen &amp; Wirtschaftsgüter</t>
+  </si>
+  <si>
+    <t>A4.1 Maschinen/Fahrzeuge – Zugänge/Abgänge (Upload Rechnungen/Verkäufe) (Upload – Pflicht)</t>
+  </si>
+  <si>
+    <t>A4.2 Gebäude/Anlagen (Neu-/Um-/Zubau) (Upload Pläne/Rechnungen) (Upload – Pflicht)</t>
+  </si>
+  <si>
+    <t>Art:dropdown(Neubau,Umbau,Zubau):optional</t>
+  </si>
+  <si>
+    <t>A4.3 Photovoltaik/EE Anlagen? (Ja/Nein)</t>
+  </si>
+  <si>
+    <t>A5. Einnahmen/Ausgaben</t>
+  </si>
+  <si>
+    <t>A5.1 Haupteinnahmen 2024 (Kurzaufstellung)</t>
+  </si>
+  <si>
+    <t>A5.2 Förderungen (AMA, ÖPUL, sonst.)</t>
+  </si>
+  <si>
+    <t>A5.3 Versicherungen (Betrieb/Gebäude/Ernte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5.4 Kredite/Zinsen (Jahresaufstellung) </t>
+  </si>
+  <si>
+    <t>A5.5 SVS Jahresbestätigung</t>
+  </si>
+  <si>
+    <t>Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>AMA:dropdown(keine,AMA,ÖPUL,Sonstige):pflicht;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Fragebogenende erreicht</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +356,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,12 +384,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,21 +726,588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65C3FDB-A463-442D-8004-1172D235B2F8}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1328125" customWidth="1"/>
-    <col min="4" max="4" width="88.9296875" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,171 +1318,428 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B8">
-    <sortCondition ref="A3:A8"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C431FC-F9D5-4D19-B47A-332AED991A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950AB5F-A79D-431A-94D8-57C594C7E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1194,8 +1194,8 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
+      <c r="B29" s="4">
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
@@ -1214,8 +1214,8 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>31</v>
+      <c r="B30" s="4">
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>75</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950AB5F-A79D-431A-94D8-57C594C7E7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49C8E8-498D-4214-A6B5-519A8B74DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -801,7 +801,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -819,7 +819,7 @@
         <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -837,7 +837,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -864,7 +864,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -879,7 +879,7 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -894,7 +894,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -909,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -924,7 +924,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -942,7 +942,7 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1004,7 +1004,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1035,7 +1035,7 @@
         <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1053,7 +1053,7 @@
         <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1071,7 +1071,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1089,7 +1089,7 @@
         <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1122,7 +1122,7 @@
         <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1140,7 +1140,7 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1158,7 +1158,7 @@
         <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1204,7 +1204,7 @@
         <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
@@ -1224,7 +1224,7 @@
         <v>76</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>71</v>
@@ -1238,7 +1238,7 @@
         <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>71</v>
@@ -1252,7 +1252,7 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
@@ -1269,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>71</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA49C8E8-498D-4214-A6B5-519A8B74DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE25A5-E134-4A8B-8E8D-BF20B4F91485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="18300" yWindow="-16500" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -255,9 +255,6 @@
     <t>Nein</t>
   </si>
   <si>
-    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox(Ja,Nein)pflicht</t>
-  </si>
-  <si>
     <t>B1.1 Stammdatenänderungen?</t>
   </si>
   <si>
@@ -270,33 +267,15 @@
     <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text</t>
   </si>
   <si>
-    <t>Richtig und Vollständig:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>Beschreibung:text:optional</t>
-  </si>
-  <si>
-    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text:optional;SVS-Versicherungsnummer:text:optional;Bankverbindung(IBAN/BIC):text:optional;Familienstand:dropdown(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number:optional;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
-  </si>
-  <si>
     <t>A2.1 Fragen zum Betrieb</t>
   </si>
   <si>
-    <t>Erwerbsart:dropdown(Vollerwerb, Nebenerwerb):pflicht;Flächenaufstellung:dropdown(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
-  </si>
-  <si>
     <t>Tierarten&amp;Bestände:text;</t>
   </si>
   <si>
-    <t>Anzahl Hektar:number;typische Nutzung:text:pflicht;</t>
-  </si>
-  <si>
-    <t>Flächenaufstellung:dropdown(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
-  </si>
-  <si>
     <t>A4. Investitionen &amp; Wirtschaftsgüter</t>
   </si>
   <si>
@@ -306,9 +285,6 @@
     <t>A4.2 Gebäude/Anlagen (Neu-/Um-/Zubau) (Upload Pläne/Rechnungen) (Upload – Pflicht)</t>
   </si>
   <si>
-    <t>Art:dropdown(Neubau,Umbau,Zubau):optional</t>
-  </si>
-  <si>
     <t>A4.3 Photovoltaik/EE Anlagen? (Ja/Nein)</t>
   </si>
   <si>
@@ -330,13 +306,37 @@
     <t>A5.5 SVS Jahresbestätigung</t>
   </si>
   <si>
-    <t>Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>AMA:dropdown(keine,AMA,ÖPUL,Sonstige):pflicht;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>Fragebogenende erreicht</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb)*;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung)*</t>
+  </si>
+  <si>
+    <t>Name/Firma:text*;Anschrift:text*;Steuernummer:text*;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)*;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox*;</t>
+  </si>
+  <si>
+    <t>Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung)*</t>
+  </si>
+  <si>
+    <t>Anzahl Hektar:number;typische Nutzung:text*</t>
+  </si>
+  <si>
+    <t>Beschreibung:text</t>
+  </si>
+  <si>
+    <t>Art:select(Neubau,Umbau,Zubau)</t>
+  </si>
+  <si>
+    <t>Upload:checkbox*</t>
+  </si>
+  <si>
+    <t>AMA:select(keine,AMA,ÖPUL,Sonstige)*;Upload:checkbox*</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox*</t>
+  </si>
+  <si>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox*</t>
   </si>
 </sst>
 </file>
@@ -729,14 +729,14 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -798,10 +798,10 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -816,10 +816,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -834,10 +834,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -864,7 +864,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -879,7 +879,7 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -894,7 +894,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -909,7 +909,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -924,7 +924,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -939,10 +939,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
@@ -967,11 +967,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -983,10 +983,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -998,13 +998,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1016,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -1029,13 +1029,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1047,13 +1047,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1065,13 +1065,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1083,13 +1083,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1101,10 +1101,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1119,10 +1119,10 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1137,10 +1137,10 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1155,10 +1155,10 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1170,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1181,10 +1181,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1201,10 +1201,10 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>71</v>
@@ -1238,7 +1238,7 @@
         <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>71</v>
@@ -1252,7 +1252,7 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
@@ -1266,10 +1266,10 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>71</v>
@@ -1280,7 +1280,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE25A5-E134-4A8B-8E8D-BF20B4F91485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79C7978-1DF0-44B8-B443-322BBA5F7C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="-16500" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox*</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox*;sonstwas:checkbox;irgendwas:checkbox</t>
   </si>
 </sst>
 </file>
@@ -728,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -737,6 +740,7 @@
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="4" customWidth="1"/>
     <col min="3" max="3" width="31.265625" customWidth="1"/>
+    <col min="4" max="4" width="219.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1266,7 +1270,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>76</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79C7978-1DF0-44B8-B443-322BBA5F7C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E134E-3C4A-4B91-B4B7-C338D24EB0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox*</t>
   </si>
   <si>
-    <t>Richtig und Vollständig:checkbox*;sonstwas:checkbox;irgendwas:checkbox</t>
+    <t>Richtig-und-Vollständig:checkbox*;sonstwas:checkbox;irgendwas:checkbox</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856E134E-3C4A-4B91-B4B7-C338D24EB0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D3A25-5886-44B9-AC5A-845B86AD2AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>A2.1 Fragen zum Betrieb</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb)*;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung)*</t>
   </si>
   <si>
-    <t>Name/Firma:text*;Anschrift:text*;Steuernummer:text*;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)*;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox*;</t>
-  </si>
-  <si>
     <t>Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung)*</t>
   </si>
   <si>
@@ -327,19 +321,22 @@
     <t>Art:select(Neubau,Umbau,Zubau)</t>
   </si>
   <si>
-    <t>Upload:checkbox*</t>
-  </si>
-  <si>
     <t>AMA:select(keine,AMA,ÖPUL,Sonstige)*;Upload:checkbox*</t>
   </si>
   <si>
-    <t>Richtig und Vollständig:checkbox*</t>
-  </si>
-  <si>
-    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox*</t>
-  </si>
-  <si>
-    <t>Richtig-und-Vollständig:checkbox*;sonstwas:checkbox;irgendwas:checkbox</t>
+    <t>Richtig-und-Vollständig:checkbox;sonstwas:checkbox;irgendwas:checkbox</t>
+  </si>
+  <si>
+    <t>Name/Firma:text*;Anschrift:text*;Steuernummer:text*;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)*;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
+  </si>
+  <si>
+    <t>Upload:checkbox</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox</t>
+  </si>
+  <si>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox</t>
   </si>
 </sst>
 </file>
@@ -731,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -740,7 +737,7 @@
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="4" customWidth="1"/>
     <col min="3" max="3" width="31.265625" customWidth="1"/>
-    <col min="4" max="4" width="219.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -771,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -783,10 +780,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -802,10 +799,10 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -820,10 +817,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -838,10 +835,10 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -868,7 +865,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -883,7 +880,7 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -898,7 +895,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -913,7 +910,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -928,7 +925,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -943,10 +940,10 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -958,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
@@ -971,11 +968,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -987,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1002,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1020,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -1033,13 +1030,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1051,13 +1048,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1069,13 +1066,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1087,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1105,10 +1102,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1123,10 +1120,10 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1141,10 +1138,10 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1162,7 +1159,7 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1174,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1208,7 +1205,7 @@
         <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
@@ -1228,7 +1225,7 @@
         <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>71</v>
@@ -1242,7 +1239,7 @@
         <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>71</v>
@@ -1256,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
@@ -1270,10 +1267,10 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>71</v>
@@ -1284,7 +1281,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D3A25-5886-44B9-AC5A-845B86AD2AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EF633-8690-48DC-89A2-ECC79A4842B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <t>Richtig und Vollständig:checkbox</t>
   </si>
   <si>
-    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe vollständig:checkbox</t>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig*:checkbox</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EF633-8690-48DC-89A2-ECC79A4842B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA41D07-7381-493C-8CDC-CEFE42D744BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <t>Richtig und Vollständig:checkbox</t>
   </si>
   <si>
-    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig*:checkbox</t>
+    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox*</t>
   </si>
 </sst>
 </file>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA41D07-7381-493C-8CDC-CEFE42D744BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6AE97-99F8-4EF8-A5EC-A393EA45BE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -336,7 +336,7 @@
     <t>Richtig und Vollständig:checkbox</t>
   </si>
   <si>
-    <t>Name/Firma:text;Anschrift:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox*</t>
+    <t>Name/Firma:text*;Anschrift:text*;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox*</t>
   </si>
 </sst>
 </file>
@@ -1107,6 +1107,9 @@
       <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E6AE97-99F8-4EF8-A5EC-A393EA45BE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04731C11-23D4-4EEB-AEFD-696C70769D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -336,7 +336,7 @@
     <t>Richtig und Vollständig:checkbox</t>
   </si>
   <si>
-    <t>Name/Firma:text*;Anschrift:text*;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox*</t>
+    <t>Name/Firma*:text;Anschrift*:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC)*:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig*:checkbox</t>
   </si>
 </sst>
 </file>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04731C11-23D4-4EEB-AEFD-696C70769D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BE8DAA-1D4A-461D-A898-EF94032EEB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -327,9 +327,6 @@
     <t>Richtig-und-Vollständig:checkbox;sonstwas:checkbox;irgendwas:checkbox</t>
   </si>
   <si>
-    <t>Name/Firma:text*;Anschrift:text*;Steuernummer:text*;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)*;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
-  </si>
-  <si>
     <t>Upload:checkbox</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Name/Firma*:text;Anschrift*:text;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC)*:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig*:checkbox</t>
+  </si>
+  <si>
+    <t>Name/Firma*:text;Anschrift:text*;Steuernummer:text*;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)*;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox;</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -768,7 +768,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1002,7 +1002,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1069,7 +1069,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1087,7 +1087,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1105,7 +1105,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1123,7 +1123,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1159,7 +1159,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA927A16-6EB0-4F06-9669-F68BF47D2D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D87C68-E50F-43D0-B4AE-FCC0D8437416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="150" yWindow="-13320" windowWidth="15135" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Haben Sie ein Auto?</t>
   </si>
   <si>
-    <t>Farbe:text*; Kaufdatum:date</t>
-  </si>
-  <si>
     <t>Ist das Auto elektrisch?</t>
   </si>
   <si>
@@ -77,7 +74,10 @@
     <t>Haben Sie weitere Fahrzeuge?</t>
   </si>
   <si>
-    <t>Typ:select(Auto,Fahrrad,Roller)*</t>
+    <t>Farbe:text:pflicht; Kaufdatum:date</t>
+  </si>
+  <si>
+    <t>Typ:select(Auto,Fahrrad,Roller):pflicht</t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -513,7 +513,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -530,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D87C68-E50F-43D0-B4AE-FCC0D8437416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB1A30-BCF9-4953-8C10-B9C4C4AC87C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-13320" windowWidth="15135" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-3255" yWindow="-15495" windowWidth="19350" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB1A30-BCF9-4953-8C10-B9C4C4AC87C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3A0E3-FA60-447E-B253-1452569515FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3255" yWindow="-15495" windowWidth="19350" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -53,31 +54,289 @@
     <t>Ja</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstmalige Erstellung mit unserer Kanzlei (Ja: erstmalig; Nein: wir haben die Erklärung im Vorjahr gemeinsam erstellt)? </t>
+  </si>
+  <si>
+    <t>A1. Stammdaten</t>
+  </si>
+  <si>
+    <t>A1.1 Name/Firma</t>
+  </si>
+  <si>
+    <t>A1.2 Anschrift</t>
+  </si>
+  <si>
+    <t>A1.3 Steuernummer</t>
+  </si>
+  <si>
+    <t>A1.3 AMA-Betreibsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 SVS-Versicherungsnummer</t>
+  </si>
+  <si>
+    <t>A1.3 Bankverbindung (IBAN/BIC)</t>
+  </si>
+  <si>
+    <t>A1.3 Familienstand &amp; Kinder</t>
+  </si>
+  <si>
+    <t>A1.3 Vollmacht &amp; DSGVO-Einwilligung</t>
+  </si>
+  <si>
+    <t>A2. Betriebsstruktur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Vollerwerb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.1 Nebenerwerb </t>
+  </si>
+  <si>
+    <t>A3. Nebetätigkeiten gesamt (Erstaufnahme)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>A3.1 Be /Verarbeitung eigener Naturprodukte (Direktvermarktung) (Einnahmenübersicht upload)</t>
+  </si>
+  <si>
+    <t>A3.2 Buschenschank / Mostbuschenschank / Almausschank (Nächtigungen/Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.3 Urlaub am Bauernhof (Betten, Nächtigungen, Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>A3.4 Vermietung land-/forstw. Betriebsmittel (an wen? Bezirk? Kondition – upload)</t>
+  </si>
+  <si>
+    <t>A3.5 Dienstleistungen für andere land-/forstw. Betriebe (Art, Auftraggeber, Entgelte – upload)</t>
+  </si>
+  <si>
+    <t>A3.6 Sonstige (Beschreibung – Absatz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.3 Tierhaltung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.2 Flächenaufstellung </t>
+  </si>
+  <si>
+    <t>A2.4 Waldflächen</t>
+  </si>
+  <si>
+    <t>B1. Stammdaten &amp; Betreiber</t>
+  </si>
+  <si>
+    <t>B1.1 Änderungen bei Name/Adresse/Bank? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>B1.2 Betriebsführerwechsel / Mitunternehmerschaft geändert? (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung</t>
+  </si>
+  <si>
+    <t>B2.2 Bewirtschaftungsart geändert (Voll/Neben, Bio/konv.)? (Wenn Ja: Kurzbeschreibung angeben)</t>
+  </si>
+  <si>
+    <t>Check: „Ich habe alle Änderungen/Unterlagen für 2024 übermittelt.“ (Ja/Nein – Pflicht)</t>
+  </si>
+  <si>
+    <t>Freitext: „Gibt es noch etwas, das wir wissen sollten?“ (Absatz – optional)</t>
+  </si>
+  <si>
+    <t>Bestätigung: „Ich bestätige die Richtigkeit/Vollständigkeit.“ (Checkbox – Pflicht)</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2.4 Waldflächen: Hektar &amp; typische Nutzungen angeben </t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
+    <t>Ende</t>
+  </si>
+  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>Ende</t>
-  </si>
-  <si>
-    <t>Haben Sie ein Auto?</t>
-  </si>
-  <si>
-    <t>Ist das Auto elektrisch?</t>
-  </si>
-  <si>
-    <t>Reichweite:number; Hersteller:select(BMW,VW,Tesla)</t>
-  </si>
-  <si>
-    <t>Haben Sie weitere Fahrzeuge?</t>
-  </si>
-  <si>
-    <t>Farbe:text:pflicht; Kaufdatum:date</t>
-  </si>
-  <si>
-    <t>Typ:select(Auto,Fahrrad,Roller):pflicht</t>
+    <t>B1.1 Stammdatenänderungen?</t>
+  </si>
+  <si>
+    <t>Betriebsführer:text;Mitunternehmer:text;</t>
+  </si>
+  <si>
+    <t>B2. Flächen &amp; Bewirtschaftung Änderung?</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text</t>
+  </si>
+  <si>
+    <t>A2.1 Fragen zum Betrieb</t>
+  </si>
+  <si>
+    <t>Tierarten&amp;Bestände:text;</t>
+  </si>
+  <si>
+    <t>A4. Investitionen &amp; Wirtschaftsgüter</t>
+  </si>
+  <si>
+    <t>A4.1 Maschinen/Fahrzeuge – Zugänge/Abgänge (Upload Rechnungen/Verkäufe) (Upload – Pflicht)</t>
+  </si>
+  <si>
+    <t>A4.2 Gebäude/Anlagen (Neu-/Um-/Zubau) (Upload Pläne/Rechnungen) (Upload – Pflicht)</t>
+  </si>
+  <si>
+    <t>A4.3 Photovoltaik/EE Anlagen? (Ja/Nein)</t>
+  </si>
+  <si>
+    <t>A5. Einnahmen/Ausgaben</t>
+  </si>
+  <si>
+    <t>A5.1 Haupteinnahmen 2024 (Kurzaufstellung)</t>
+  </si>
+  <si>
+    <t>A5.2 Förderungen (AMA, ÖPUL, sonst.)</t>
+  </si>
+  <si>
+    <t>A5.3 Versicherungen (Betrieb/Gebäude/Ernte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5.4 Kredite/Zinsen (Jahresaufstellung) </t>
+  </si>
+  <si>
+    <t>A5.5 SVS Jahresbestätigung</t>
+  </si>
+  <si>
+    <t>Fragebogenende erreicht</t>
+  </si>
+  <si>
+    <t>Beschreibung:text</t>
+  </si>
+  <si>
+    <t>Art:select(Neubau,Umbau,Zubau)</t>
+  </si>
+  <si>
+    <t>Richtig-und-Vollständig:checkbox;sonstwas:checkbox;irgendwas:checkbox</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox</t>
+  </si>
+  <si>
+    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+  </si>
+  <si>
+    <t>Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+  </si>
+  <si>
+    <t>Anzahl Hektar:number;typische Nutzung:text:pflicht</t>
+  </si>
+  <si>
+    <t>Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>AMA:select(keine,AMA,ÖPUL,Sonstige):pflicht;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox:pflicht</t>
   </si>
 </sst>
 </file>
@@ -99,12 +358,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,15 +384,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -470,147 +726,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="8.53125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.265625" customWidth="1"/>
+    <col min="4" max="4" width="97.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B2">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65C3FDB-A463-442D-8004-1172D235B2F8}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1328125" customWidth="1"/>
-    <col min="4" max="4" width="88.9296875" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B8">
-    <sortCondition ref="A3:A8"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3A0E3-FA60-447E-B253-1452569515FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888CF1E6-ED0C-46BC-B17D-4D20CE1718BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
   </si>
   <si>
-    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
-  </si>
-  <si>
     <t>Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
   </si>
   <si>
@@ -337,6 +334,15 @@
   </si>
   <si>
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht;Flächenaufstellung:select(Eigenbewirtschaftung,Pacht,Mitbewirtschaftung):pflicht</t>
+  </si>
+  <si>
+    <t>A3. Nebentätigkeiten gesamt (Erstaufnahme)</t>
+  </si>
+  <si>
+    <t>Bemerkung:text</t>
   </si>
 </sst>
 </file>
@@ -783,7 +789,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -799,7 +805,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -835,7 +841,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -850,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1002,7 +1008,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1033,7 +1039,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1051,7 +1057,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1069,7 +1075,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1087,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1105,7 +1111,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1123,7 +1129,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1188,7 +1194,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1198,9 +1204,6 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <v>27</v>
-      </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1218,9 +1221,6 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
-        <v>27</v>
-      </c>
       <c r="C30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1255,6 +1255,9 @@
       <c r="C32" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
@@ -1285,6 +1288,9 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888CF1E6-ED0C-46BC-B17D-4D20CE1718BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCB040-AF20-4681-9D18-C56521917966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -312,12 +312,6 @@
     <t>Art:select(Neubau,Umbau,Zubau)</t>
   </si>
   <si>
-    <t>Richtig-und-Vollständig:checkbox;sonstwas:checkbox;irgendwas:checkbox</t>
-  </si>
-  <si>
-    <t>Richtig und Vollständig:checkbox</t>
-  </si>
-  <si>
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
   </si>
   <si>
@@ -342,7 +336,13 @@
     <t>A3. Nebentätigkeiten gesamt (Erstaufnahme)</t>
   </si>
   <si>
-    <t>Bemerkung:text</t>
+    <t>Beschreibung:text:pflicht</t>
+  </si>
+  <si>
+    <t>Richtig-und-Vollständig:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Richtig und Vollständig:checkbox:pflicht</t>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -789,7 +789,7 @@
         <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -805,7 +805,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1008,7 +1008,7 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1039,7 +1039,7 @@
         <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1057,7 +1057,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1075,7 +1075,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1093,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1129,7 +1129,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1147,7 +1147,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1165,7 +1165,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1194,7 +1194,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1256,7 +1256,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1273,7 +1273,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCB040-AF20-4681-9D18-C56521917966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A95E6-25D1-4E55-8555-B12179EB38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="165" yWindow="4830" windowWidth="19350" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -258,9 +258,6 @@
     <t>B1.1 Stammdatenänderungen?</t>
   </si>
   <si>
-    <t>Betriebsführer:text;Mitunternehmer:text;</t>
-  </si>
-  <si>
     <t>B2. Flächen &amp; Bewirtschaftung Änderung?</t>
   </si>
   <si>
@@ -342,7 +339,7 @@
     <t>Richtig-und-Vollständig:checkbox:pflicht</t>
   </si>
   <si>
-    <t>Richtig und Vollständig:checkbox:pflicht</t>
+    <t>Betriebsführer:text;Mitunternehmer:text</t>
   </si>
 </sst>
 </file>
@@ -774,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -786,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -805,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -823,7 +820,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -841,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -856,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -946,7 +943,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -961,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
@@ -974,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
@@ -990,10 +987,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1005,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1023,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -1036,10 +1033,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1054,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1072,10 +1069,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1090,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1108,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1129,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1147,7 +1144,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1165,7 +1162,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1180,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1194,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1208,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1222,10 +1219,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1256,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1273,7 +1270,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1287,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A95E6-25D1-4E55-8555-B12179EB38DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494D0F8-1B4C-4460-AFED-6106736BB690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="4830" windowWidth="19350" windowHeight="8235" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
   </si>
   <si>
-    <t>Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
-  </si>
-  <si>
     <t>Anzahl Hektar:number;typische Nutzung:text:pflicht</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox:pflicht</t>
   </si>
   <si>
-    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht;Flächenaufstellung:select(Eigenbewirtschaftung,Pacht,Mitbewirtschaftung):pflicht</t>
-  </si>
-  <si>
     <t>A3. Nebentätigkeiten gesamt (Erstaufnahme)</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>Betriebsführer:text;Mitunternehmer:text</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
+  </si>
+  <si>
+    <t>Hinweis: AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -786,7 +786,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -802,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1005,7 +1005,7 @@
         <v>80</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1036,7 +1036,7 @@
         <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1054,7 +1054,7 @@
         <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1072,7 +1072,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1090,7 +1090,7 @@
         <v>85</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1108,7 +1108,7 @@
         <v>86</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1144,7 +1144,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1205,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1270,7 +1270,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A494D0F8-1B4C-4460-AFED-6106736BB690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FE23C-5854-4BE7-9284-49082FD7BD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
   </si>
   <si>
-    <t>Hinweis: AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+    <t>Hinweis-AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FE23C-5854-4BE7-9284-49082FD7BD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2729E33-13A5-4FE7-AD5F-9E0740F2AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
   </si>
   <si>
-    <t>Hinweis-AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+    <t>Hinweis-AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2729E33-13A5-4FE7-AD5F-9E0740F2AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A26308-1423-4660-BDE4-16E4E0A2A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>A2.1 Fragen zum Betrieb</t>
   </si>
   <si>
-    <t>Tierarten&amp;Bestände:text;</t>
-  </si>
-  <si>
     <t>A4. Investitionen &amp; Wirtschaftsgüter</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Art:select(Neubau,Umbau,Zubau)</t>
   </si>
   <si>
-    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht&amp;DSGVO-Einwilligung:checkbox:pflicht;</t>
-  </si>
-  <si>
     <t>Anzahl Hektar:number;typische Nutzung:text:pflicht</t>
   </si>
   <si>
@@ -339,7 +333,13 @@
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
   </si>
   <si>
-    <t>Hinweis-AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht;</t>
+  </si>
+  <si>
+    <t>Tierarten-und-Bestände:text;</t>
+  </si>
+  <si>
+    <t>Test-Text:info;Hinweis-AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -786,7 +786,7 @@
         <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -820,7 +820,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -943,7 +943,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
@@ -971,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
@@ -987,10 +987,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1002,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -1033,10 +1033,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1051,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1069,10 +1069,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1105,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1144,7 +1144,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1162,7 +1162,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1191,7 +1191,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1205,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1270,7 +1270,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1284,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A26308-1423-4660-BDE4-16E4E0A2A579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A883B8B-8947-428F-914A-B753F78C3C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -339,7 +339,7 @@
     <t>Tierarten-und-Bestände:text;</t>
   </si>
   <si>
-    <t>Test-Text:info;Hinweis-AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -882,6 +882,9 @@
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -897,6 +900,9 @@
       <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
@@ -912,6 +918,9 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
@@ -926,6 +935,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A883B8B-8947-428F-914A-B753F78C3C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE8686-152D-4D26-9909-9C05BB8AC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -261,9 +261,6 @@
     <t>B2. Flächen &amp; Bewirtschaftung Änderung?</t>
   </si>
   <si>
-    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text</t>
-  </si>
-  <si>
     <t>A2.1 Fragen zum Betrieb</t>
   </si>
   <si>
@@ -300,46 +297,49 @@
     <t>Fragebogenende erreicht</t>
   </si>
   <si>
-    <t>Beschreibung:text</t>
-  </si>
-  <si>
-    <t>Art:select(Neubau,Umbau,Zubau)</t>
-  </si>
-  <si>
-    <t>Anzahl Hektar:number;typische Nutzung:text:pflicht</t>
-  </si>
-  <si>
-    <t>Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>AMA:select(keine,AMA,ÖPUL,Sonstige):pflicht;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox:pflicht</t>
   </si>
   <si>
     <t>A3. Nebentätigkeiten gesamt (Erstaufnahme)</t>
   </si>
   <si>
-    <t>Beschreibung:text:pflicht</t>
-  </si>
-  <si>
     <t>Richtig-und-Vollständig:checkbox:pflicht</t>
   </si>
   <si>
-    <t>Betriebsführer:text;Mitunternehmer:text</t>
-  </si>
-  <si>
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
   </si>
   <si>
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht;</t>
   </si>
   <si>
-    <t>Tierarten-und-Bestände:text;</t>
-  </si>
-  <si>
-    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht</t>
+    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Tierarten-und-Bestände:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Anzahl Hektar:number;typische Nutzung:text:pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Beschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Art:select(Neubau,Umbau,Zubau);Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>AMA:select(keine,AMA,ÖPUL,Sonstige):pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Betriebsführer:text;Mitunternehmer:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Beschreibung:text:pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -802,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -820,7 +820,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -867,6 +867,9 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -883,7 +886,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -901,7 +904,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -919,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -937,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -955,7 +958,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -970,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
@@ -983,9 +986,11 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -999,10 +1004,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1014,10 +1022,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1032,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
@@ -1045,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1063,10 +1071,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1081,10 +1089,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1099,10 +1107,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1117,10 +1125,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1138,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1174,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1189,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1203,7 +1211,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1217,7 +1225,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1234,7 +1242,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1250,6 +1258,9 @@
       <c r="C31" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
@@ -1265,7 +1276,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1282,7 +1293,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1296,7 +1307,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE8686-152D-4D26-9909-9C05BB8AC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E202B-C35D-4456-9C1C-632297AFDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -294,9 +294,6 @@
     <t>A5.5 SVS Jahresbestätigung</t>
   </si>
   <si>
-    <t>Fragebogenende erreicht</t>
-  </si>
-  <si>
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox:pflicht</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht;</t>
   </si>
   <si>
-    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigen-,Pacht,Mitbewirtschaftung):pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>Tierarten-und-Bestände:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
   <si>
@@ -340,6 +334,12 @@
   </si>
   <si>
     <t>Beschreibung:text:pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigenbewirtschaftung,Pacht,Mitbewirtschaftung):pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Sie haben das Fragebogenende erreicht. Beenden Sie mit JA.</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -786,7 +786,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -802,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -820,7 +820,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -867,8 +867,8 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
-        <v>94</v>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -886,7 +886,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -904,7 +904,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -922,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -940,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -958,7 +958,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -989,7 +989,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1007,7 +1007,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1025,7 +1025,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1074,7 +1074,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1092,7 +1092,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1128,7 +1128,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1146,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1164,7 +1164,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1182,7 +1182,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1211,7 +1211,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1225,7 +1225,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1242,7 +1242,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1276,7 +1276,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1293,7 +1293,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1306,8 +1306,8 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
+      <c r="C34" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E202B-C35D-4456-9C1C-632297AFDDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7396DF-0C42-4303-88D2-4C982A2EDFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="18300" yWindow="-16500" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
   </si>
   <si>
-    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht;</t>
-  </si>
-  <si>
     <t>Tierarten-und-Bestände:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>Sie haben das Fragebogenende erreicht. Beenden Sie mit JA.</t>
+  </si>
+  <si>
+    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -802,7 +802,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -820,7 +820,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -838,7 +838,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -868,7 +868,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -886,7 +886,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -904,7 +904,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -922,7 +922,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -940,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -958,7 +958,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -989,7 +989,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1007,7 +1007,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1025,7 +1025,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1056,7 +1056,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1074,7 +1074,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1092,7 +1092,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1110,7 +1110,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1128,7 +1128,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1146,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1164,7 +1164,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1225,7 +1225,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1242,7 +1242,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1276,7 +1276,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1307,7 +1307,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7396DF-0C42-4303-88D2-4C982A2EDFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD28D6F-C2A9-4E16-AE67-24F11FB7AC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="-16500" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -789,7 +789,9 @@
         <v>88</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
@@ -807,7 +809,9 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
@@ -825,7 +829,9 @@
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
@@ -843,7 +849,9 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
@@ -855,7 +863,9 @@
       <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
@@ -873,7 +883,9 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
@@ -891,7 +903,9 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
@@ -909,7 +923,9 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
@@ -927,7 +943,9 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
@@ -945,7 +963,9 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
@@ -963,7 +983,9 @@
       <c r="E13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
@@ -976,7 +998,9 @@
         <v>75</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -994,7 +1018,9 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
@@ -1012,7 +1038,9 @@
       <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
@@ -1030,7 +1058,9 @@
       <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
@@ -1043,7 +1073,9 @@
         <v>79</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
@@ -1061,7 +1093,9 @@
       <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
@@ -1079,7 +1113,9 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
@@ -1097,7 +1133,9 @@
       <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
@@ -1115,7 +1153,9 @@
       <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
@@ -1133,7 +1173,9 @@
       <c r="E23" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
@@ -1151,7 +1193,9 @@
       <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
@@ -1169,7 +1213,9 @@
       <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
@@ -1187,7 +1233,9 @@
       <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="4">

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD28D6F-C2A9-4E16-AE67-24F11FB7AC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA61D6-54D1-42C1-9609-E82D35A58ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -321,9 +321,6 @@
     <t>Art:select(Neubau,Umbau,Zubau);Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
   <si>
-    <t>AMA:select(keine,AMA,ÖPUL,Sonstige):pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>Betriebsführer:text;Mitunternehmer:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>Keine:checkbox;AMA:checkbox;ÖPUL:checkbox;Sonstige:checkboxt;;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -804,7 +804,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -1108,7 +1108,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1290,7 +1290,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1355,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA61D6-54D1-42C1-9609-E82D35A58ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352084A-2A3F-4374-A8D2-39C7DAD02C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
   </si>
   <si>
-    <t>Keine:checkbox;AMA:checkbox;ÖPUL:checkbox;Sonstige:checkboxt;;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+    <t>Keine:checkbox;AMA:checkbox;ÖPUL:checkbox;Sonstige:checkbox;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
 </sst>
 </file>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0352084A-2A3F-4374-A8D2-39C7DAD02C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68211156-7712-4EF2-85C6-2667CE0F2675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68211156-7712-4EF2-85C6-2667CE0F2675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204575AD-03A3-4B70-B9ED-4E34E30A4CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -339,7 +339,7 @@
     <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
   </si>
   <si>
-    <t>Keine:checkbox;AMA:checkbox;ÖPUL:checkbox;Sonstige:checkbox;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+    <t>mcheckbox(Keine,AMA,ÖPUL,Sonstige);:Info;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
   </si>
 </sst>
 </file>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204575AD-03A3-4B70-B9ED-4E34E30A4CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F53ADB-EDE1-41DC-A6AE-103C7BFC8307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -294,52 +294,52 @@
     <t>A5.5 SVS Jahresbestätigung</t>
   </si>
   <si>
-    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>A3. Nebentätigkeiten gesamt (Erstaufnahme)</t>
   </si>
   <si>
-    <t>Richtig-und-Vollständig:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb):pflicht</t>
-  </si>
-  <si>
-    <t>Tierarten-und-Bestände:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Anzahl Hektar:number;typische Nutzung:text:pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Beschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Art:select(Neubau,Umbau,Zubau);Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Betriebsführer:text;Mitunternehmer:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>Beschreibung:text:pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigenbewirtschaftung,Pacht,Mitbewirtschaftung):pflicht;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>Sie haben das Fragebogenende erreicht. Beenden Sie mit JA.</t>
   </si>
   <si>
-    <t>Name/Firma:text:pflicht;Anschrift:text:pflicht;Steuernummer:text:pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet):pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
-  </si>
-  <si>
-    <t>mcheckbox(Keine,AMA,ÖPUL,Sonstige);:Info;Alle Daten hochgeladen?:info;Upload:checkbox:pflicht</t>
+    <t>Erwerbsart:select(Vollerwerb, Nebenerwerb)|pflicht</t>
+  </si>
+  <si>
+    <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
+  </si>
+  <si>
+    <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigenbewirtschaftung,Pacht,Mitbewirtschaftung)|pflicht;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Tierarten-und-Bestände:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Anzahl Hektar:number;typische Nutzung:text|pflicht;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Beschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Art:select(Neubau,Umbau,Zubau);Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Förderungen:mcheckbox(Keine,AMA,ÖPUL,Sonstige);Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Richtig-und-Vollständig:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC)|pflicht:text;Familienstand:select(ledig,verh.,geschieden,verwitwet);Kinder:number;Eingabe-vollständig:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Betriebsführer:text;Mitunternehmer:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Beschreibung:text|pflicht;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -786,7 +786,7 @@
         <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
@@ -804,7 +804,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -844,7 +844,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -861,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
@@ -1013,7 +1013,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1053,7 +1053,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1088,7 +1088,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1108,7 +1108,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1128,7 +1128,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1148,7 +1148,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1168,7 +1168,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1207,8 +1207,8 @@
       <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D25" t="s">
-        <v>91</v>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1228,7 +1228,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1290,7 +1290,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1307,7 +1307,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1341,7 +1341,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1355,7 +1355,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F53ADB-EDE1-41DC-A6AE-103C7BFC8307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B229C-829F-4AA6-B51D-D26D71C4A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,6 @@
     <t>Erwerbsart:select(Vollerwerb, Nebenerwerb)|pflicht</t>
   </si>
   <si>
-    <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox:pflicht</t>
-  </si>
-  <si>
     <t>HINWEIS --&gt; AMA Daten werden von der Finanz verwertet, saubere Erstdaten helfen bei Plausibilitätsprüfung:info;Flächenaufstellung:select(Eigenbewirtschaftung,Pacht,Mitbewirtschaftung)|pflicht;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>Beschreibung:text|pflicht;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox|pflicht</t>
   </si>
 </sst>
 </file>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -804,7 +804,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -824,7 +824,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -844,7 +844,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -878,7 +878,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -898,7 +898,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -918,7 +918,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -938,7 +938,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -958,7 +958,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -978,7 +978,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -1013,7 +1013,7 @@
         <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -1033,7 +1033,7 @@
         <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1053,7 +1053,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1088,7 +1088,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -1108,7 +1108,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1128,7 +1128,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1148,7 +1148,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1168,7 +1168,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1208,7 +1208,7 @@
         <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1228,7 +1228,7 @@
         <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1259,7 +1259,7 @@
         <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
@@ -1273,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1290,7 +1290,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
@@ -1307,7 +1307,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1324,7 +1324,7 @@
         <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1341,7 +1341,7 @@
         <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B229C-829F-4AA6-B51D-D26D71C4A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B76DC-04DA-4A50-ADBA-DFFBD81507E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -333,13 +333,49 @@
     <t>Betriebsführer:text;Mitunternehmer:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
   <si>
-    <t>Erwerbsart:select(Vollerwerb,Nebenerwerb);Bewirtschaftungsart:select(Bio,konventionell);Kurzbeschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
-  </si>
-  <si>
     <t>Beschreibung:text|pflicht;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
   <si>
     <t>Name/Firma:text|pflicht;Anschrift:text|pflicht;Steuernummer:text|pflicht;AMA-Betriebsnummer:text;SVS-Versicherungsnummer:text;Bankverbindung(IBAN/BIC):text;Familienstand:select(ledig,verh.,geschieden,verwitwet)|pflicht;Kinder:number;Vollmacht-und-DSGVO-Einwilligung:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>B3. Wurde ein neuer Einheitswert-Bescheid zugestellt?</t>
+  </si>
+  <si>
+    <t>B4. Nebentätigkeiten gesamt (Erstaufnahme)</t>
+  </si>
+  <si>
+    <t>B4.1 Be /Verarbeitung eigener Naturprodukte (Direktvermarktung) (Einnahmenübersicht upload)</t>
+  </si>
+  <si>
+    <t>B4.2 Buschenschank / Mostbuschenschank / Almausschank (Nächtigungen/Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>B4.3 Urlaub am Bauernhof (Betten, Nächtigungen, Einnahmen – upload)</t>
+  </si>
+  <si>
+    <t>B4.4 Vermietung land-/forstw. Betriebsmittel (an wen? Bezirk? Kondition – upload)</t>
+  </si>
+  <si>
+    <t>B4.5 Dienstleistungen für andere land-/forstw. Betriebe (Art, Auftraggeber, Entgelte – upload)</t>
+  </si>
+  <si>
+    <t>B4.6 Sonstige (Beschreibung – Absatz)</t>
+  </si>
+  <si>
+    <t>B6. SVS Jahresbestätigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5.Kredite/Zinsen (Jahresaufstellung) </t>
+  </si>
+  <si>
+    <t>Änderungen bei Zu-/Verpachtung:checkbox;Kurzbeschreibung:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
+  </si>
+  <si>
+    <t>A6. Leben die Hofübergeber am Hof?</t>
+  </si>
+  <si>
+    <t>Hofüberger:select(beide,eine Person)|pflicht;Bemerkung:text</t>
   </si>
 </sst>
 </file>
@@ -729,17 +765,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="2" width="8.53125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.265625" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" customWidth="1"/>
     <col min="4" max="4" width="97.9296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -771,7 +807,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1182,16 +1218,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>71</v>
@@ -1204,8 +1237,8 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>65</v>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>92</v>
@@ -1225,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1245,24 +1278,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1270,13 +1309,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
@@ -1287,12 +1323,12 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1304,12 +1340,12 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1320,13 +1356,13 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1337,14 +1373,8 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>71</v>
@@ -1354,10 +1384,229 @@
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>31</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B76DC-04DA-4A50-ADBA-DFFBD81507E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FC4C4-FE10-46E9-A8AB-2C2F75255CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A46"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1218,7 +1218,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>111</v>
@@ -1385,7 +1385,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>102</v>
@@ -1405,7 +1405,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>103</v>
@@ -1425,7 +1425,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>104</v>
@@ -1445,7 +1445,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>105</v>
@@ -1465,7 +1465,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>106</v>
@@ -1485,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>107</v>

--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfred\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FC4C4-FE10-46E9-A8AB-2C2F75255CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5AA67E-04EC-4E82-B394-3CD1EB0B34E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{662BC48C-1C16-401C-AAB7-DB68553FD4E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>Hofüberger:select(beide,eine Person)|pflicht;Bemerkung:text</t>
+  </si>
+  <si>
+    <t>A3.4 Vermietung land-/forstw. Betriebsmittel (an Nichtlandwirte?)</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie hier Ihre Umsätze bekannt:info;Umsatz:text;Alle Daten hochgeladen?:info;Upload:checkbox|pflicht</t>
   </si>
 </sst>
 </file>
@@ -767,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F16D92-6267-41C4-B1C4-EEDB3ADF797B}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -914,7 +920,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -934,7 +940,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -954,7 +960,7 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -971,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -994,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -1391,7 +1397,7 @@
         <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1411,7 +1417,7 @@
         <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1431,7 +1437,7 @@
         <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1451,7 +1457,7 @@
         <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1471,7 +1477,7 @@
         <v>106</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
